--- a/Filtered_By_Region/Region V/Region V_ELECTRIFICATION.xlsx
+++ b/Filtered_By_Region/Region V/Region V_ELECTRIFICATION.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS346"/>
+  <dimension ref="A1:AU346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,7 +659,17 @@
           <t>Unnamed: 43</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 44</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 45</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
@@ -768,7 +778,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -877,7 +892,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -991,7 +1011,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1105,7 +1130,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1219,7 +1249,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1333,7 +1368,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1447,7 +1487,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1561,7 +1606,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1675,7 +1725,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1789,7 +1844,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1903,7 +1963,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2017,7 +2082,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr">
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2164,7 +2234,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr">
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2311,7 +2386,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr">
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2458,7 +2538,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr">
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2605,7 +2690,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr">
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2752,7 +2842,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR18" t="inlineStr">
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2899,7 +2994,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr">
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3046,7 +3146,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR20" t="inlineStr">
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3193,7 +3298,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR21" t="inlineStr">
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3340,7 +3450,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR22" t="inlineStr">
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3487,7 +3602,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR23" t="inlineStr">
+      <c r="AS23" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3634,7 +3754,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR24" t="inlineStr">
+      <c r="AS24" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3781,7 +3906,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR25" t="inlineStr">
+      <c r="AS25" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3928,7 +4058,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR26" t="inlineStr">
+      <c r="AS26" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT26" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4075,7 +4210,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR27" t="inlineStr">
+      <c r="AS27" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT27" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4222,7 +4362,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR28" t="inlineStr">
+      <c r="AS28" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT28" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4369,7 +4514,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR29" t="inlineStr">
+      <c r="AS29" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT29" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4516,7 +4666,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR30" t="inlineStr">
+      <c r="AS30" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT30" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4663,7 +4818,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR31" t="inlineStr">
+      <c r="AS31" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT31" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4810,7 +4970,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR32" t="inlineStr">
+      <c r="AS32" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT32" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4957,7 +5122,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR33" t="inlineStr">
+      <c r="AS33" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT33" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5104,7 +5274,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR34" t="inlineStr">
+      <c r="AS34" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT34" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5251,7 +5426,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR35" t="inlineStr">
+      <c r="AS35" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT35" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5398,7 +5578,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR36" t="inlineStr">
+      <c r="AS36" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT36" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5545,7 +5730,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR37" t="inlineStr">
+      <c r="AS37" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT37" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5692,7 +5882,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR38" t="inlineStr">
+      <c r="AS38" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT38" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5839,7 +6034,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR39" t="inlineStr">
+      <c r="AS39" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT39" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5986,7 +6186,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR40" t="inlineStr">
+      <c r="AS40" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT40" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6133,7 +6338,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR41" t="inlineStr">
+      <c r="AS41" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT41" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6280,7 +6490,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR42" t="inlineStr">
+      <c r="AS42" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT42" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6427,7 +6642,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR43" t="inlineStr">
+      <c r="AS43" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT43" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6574,7 +6794,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR44" t="inlineStr">
+      <c r="AS44" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT44" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6721,7 +6946,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR45" t="inlineStr">
+      <c r="AS45" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT45" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6868,7 +7098,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR46" t="inlineStr">
+      <c r="AS46" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT46" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7015,7 +7250,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR47" t="inlineStr">
+      <c r="AS47" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT47" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7162,7 +7402,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR48" t="inlineStr">
+      <c r="AS48" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT48" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7309,7 +7554,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR49" t="inlineStr">
+      <c r="AS49" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT49" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7456,7 +7706,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR50" t="inlineStr">
+      <c r="AS50" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT50" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7603,7 +7858,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR51" t="inlineStr">
+      <c r="AS51" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT51" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7720,7 +7980,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR52" t="inlineStr">
+      <c r="AT52" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7837,7 +8097,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR53" t="inlineStr">
+      <c r="AT53" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7954,7 +8214,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR54" t="inlineStr">
+      <c r="AT54" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8071,7 +8331,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR55" t="inlineStr">
+      <c r="AT55" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -8188,6 +8448,11 @@
       </c>
       <c r="AR56" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT56" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -8303,6 +8568,11 @@
       </c>
       <c r="AR57" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT57" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -8418,6 +8688,11 @@
       </c>
       <c r="AR58" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT58" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -8533,6 +8808,11 @@
       </c>
       <c r="AR59" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT59" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -8648,6 +8928,11 @@
       </c>
       <c r="AR60" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT60" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -8763,7 +9048,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR61" t="inlineStr">
+      <c r="AT61" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -8880,7 +9165,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR62" t="inlineStr">
+      <c r="AT62" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8997,7 +9282,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR63" t="inlineStr">
+      <c r="AT63" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9120,7 +9405,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR64" t="inlineStr">
+      <c r="AT64" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9249,7 +9534,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR65" t="inlineStr">
+      <c r="AT65" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9378,7 +9663,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR66" t="inlineStr">
+      <c r="AT66" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9507,7 +9792,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR67" t="inlineStr">
+      <c r="AT67" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9636,7 +9921,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR68" t="inlineStr">
+      <c r="AT68" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9765,7 +10050,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR69" t="inlineStr">
+      <c r="AT69" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9894,7 +10179,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR70" t="inlineStr">
+      <c r="AT70" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10023,7 +10308,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR71" t="inlineStr">
+      <c r="AT71" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10152,7 +10437,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR72" t="inlineStr">
+      <c r="AT72" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10304,7 +10589,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR73" t="inlineStr">
+      <c r="AT73" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10456,7 +10741,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR74" t="inlineStr">
+      <c r="AT74" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10608,7 +10893,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR75" t="inlineStr">
+      <c r="AT75" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10760,7 +11045,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR76" t="inlineStr">
+      <c r="AT76" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10912,7 +11197,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR77" t="inlineStr">
+      <c r="AT77" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11066,7 +11351,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR78" t="inlineStr">
+      <c r="AT78" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11220,7 +11505,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR79" t="inlineStr">
+      <c r="AT79" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11374,7 +11659,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR80" t="inlineStr">
+      <c r="AT80" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11528,7 +11813,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR81" t="inlineStr">
+      <c r="AT81" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11682,7 +11967,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR82" t="inlineStr">
+      <c r="AT82" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11836,7 +12121,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR83" t="inlineStr">
+      <c r="AT83" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11990,7 +12275,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR84" t="inlineStr">
+      <c r="AT84" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12144,7 +12429,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR85" t="inlineStr">
+      <c r="AT85" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12298,7 +12583,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR86" t="inlineStr">
+      <c r="AT86" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12452,7 +12737,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR87" t="inlineStr">
+      <c r="AT87" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12606,7 +12891,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR88" t="inlineStr">
+      <c r="AT88" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12760,7 +13045,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR89" t="inlineStr">
+      <c r="AT89" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12914,7 +13199,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR90" t="inlineStr">
+      <c r="AT90" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13068,7 +13353,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR91" t="inlineStr">
+      <c r="AT91" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13222,7 +13507,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR92" t="inlineStr">
+      <c r="AT92" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13376,7 +13661,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR93" t="inlineStr">
+      <c r="AT93" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13530,7 +13815,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR94" t="inlineStr">
+      <c r="AT94" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13682,7 +13967,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR95" t="inlineStr">
+      <c r="AT95" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13834,7 +14119,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR96" t="inlineStr">
+      <c r="AT96" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13986,7 +14271,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR97" t="inlineStr">
+      <c r="AT97" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14135,7 +14420,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR98" t="inlineStr">
+      <c r="AT98" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14284,7 +14569,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR99" t="inlineStr">
+      <c r="AT99" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14436,7 +14721,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR100" t="inlineStr">
+      <c r="AT100" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14588,7 +14873,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR101" t="inlineStr">
+      <c r="AT101" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14740,7 +15025,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR102" t="inlineStr">
+      <c r="AT102" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14889,7 +15174,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR103" t="inlineStr">
+      <c r="AT103" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15038,7 +15323,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR104" t="inlineStr">
+      <c r="AT104" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15187,7 +15472,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR105" t="inlineStr">
+      <c r="AT105" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15336,7 +15621,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR106" t="inlineStr">
+      <c r="AT106" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15485,7 +15770,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR107" t="inlineStr">
+      <c r="AT107" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15639,7 +15924,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR108" t="inlineStr">
+      <c r="AT108" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15793,7 +16078,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR109" t="inlineStr">
+      <c r="AT109" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15947,7 +16232,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR110" t="inlineStr">
+      <c r="AT110" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16096,7 +16381,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR111" t="inlineStr">
+      <c r="AT111" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16245,7 +16530,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR112" t="inlineStr">
+      <c r="AT112" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16399,7 +16684,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR113" t="inlineStr">
+      <c r="AT113" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16553,7 +16838,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR114" t="inlineStr">
+      <c r="AT114" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16707,7 +16992,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR115" t="inlineStr">
+      <c r="AT115" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16861,7 +17146,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR116" t="inlineStr">
+      <c r="AT116" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16978,7 +17263,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR117" t="inlineStr">
+      <c r="AT117" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17095,7 +17380,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR118" t="inlineStr">
+      <c r="AT118" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17212,7 +17497,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR119" t="inlineStr">
+      <c r="AT119" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17329,7 +17614,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR120" t="inlineStr">
+      <c r="AT120" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17446,7 +17731,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR121" t="inlineStr">
+      <c r="AT121" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17563,7 +17848,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR122" t="inlineStr">
+      <c r="AT122" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17706,7 +17991,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR123" t="inlineStr">
+      <c r="AT123" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17849,7 +18134,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR124" t="inlineStr">
+      <c r="AT124" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17999,7 +18284,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR125" t="inlineStr">
+      <c r="AT125" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18116,7 +18401,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR126" t="inlineStr">
+      <c r="AT126" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18233,7 +18518,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR127" t="inlineStr">
+      <c r="AT127" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18350,7 +18635,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR128" t="inlineStr">
+      <c r="AT128" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18467,7 +18752,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR129" t="inlineStr">
+      <c r="AT129" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18584,7 +18869,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR130" t="inlineStr">
+      <c r="AT130" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18701,7 +18986,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR131" t="inlineStr">
+      <c r="AT131" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18818,7 +19103,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR132" t="inlineStr">
+      <c r="AT132" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18932,7 +19217,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR133" t="inlineStr">
+      <c r="AT133" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19063,7 +19348,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR134" t="inlineStr">
+      <c r="AT134" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19194,7 +19479,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR135" t="inlineStr">
+      <c r="AT135" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19325,7 +19610,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR136" t="inlineStr">
+      <c r="AT136" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19456,7 +19741,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR137" t="inlineStr">
+      <c r="AT137" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19589,7 +19874,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR138" t="inlineStr">
+      <c r="AS138" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT138" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19720,7 +20010,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR139" t="inlineStr">
+      <c r="AS139" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT139" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19853,7 +20148,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR140" t="inlineStr">
+      <c r="AS140" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT140" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19984,7 +20284,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR141" t="inlineStr">
+      <c r="AS141" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT141" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20117,7 +20422,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR142" t="inlineStr">
+      <c r="AS142" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT142" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20248,7 +20558,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR143" t="inlineStr">
+      <c r="AS143" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT143" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20379,7 +20694,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR144" t="inlineStr">
+      <c r="AS144" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT144" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20519,7 +20839,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR145" t="inlineStr">
+      <c r="AT145" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20659,7 +20979,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR146" t="inlineStr">
+      <c r="AT146" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20799,7 +21119,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR147" t="inlineStr">
+      <c r="AT147" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -20939,7 +21259,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR148" t="inlineStr">
+      <c r="AT148" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21064,7 +21384,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR149" t="inlineStr">
+      <c r="AT149" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -21206,7 +21526,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR150" t="inlineStr">
+      <c r="AT150" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21325,7 +21645,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR151" t="inlineStr">
+      <c r="AT151" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21444,7 +21764,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR152" t="inlineStr">
+      <c r="AT152" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21563,7 +21883,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR153" t="inlineStr">
+      <c r="AT153" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21682,7 +22002,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR154" t="inlineStr">
+      <c r="AT154" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21801,7 +22121,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR155" t="inlineStr">
+      <c r="AT155" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21920,7 +22240,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR156" t="inlineStr">
+      <c r="AT156" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22039,7 +22359,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR157" t="inlineStr">
+      <c r="AT157" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22158,7 +22478,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR158" t="inlineStr">
+      <c r="AT158" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22277,7 +22597,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR159" t="inlineStr">
+      <c r="AT159" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22391,7 +22711,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR160" t="inlineStr">
+      <c r="AT160" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22510,7 +22830,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR161" t="inlineStr">
+      <c r="AT161" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22624,7 +22944,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR162" t="inlineStr">
+      <c r="AT162" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22738,7 +23058,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR163" t="inlineStr">
+      <c r="AT163" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22881,7 +23201,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR164" t="inlineStr">
+      <c r="AT164" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23021,7 +23341,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR165" t="inlineStr">
+      <c r="AT165" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23164,7 +23484,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR166" t="inlineStr">
+      <c r="AT166" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23307,7 +23627,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR167" t="inlineStr">
+      <c r="AT167" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23450,7 +23770,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR168" t="inlineStr">
+      <c r="AT168" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23595,7 +23915,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR169" t="inlineStr">
+      <c r="AT169" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23740,7 +24060,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR170" t="inlineStr">
+      <c r="AT170" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23885,7 +24205,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR171" t="inlineStr">
+      <c r="AT171" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24030,7 +24350,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR172" t="inlineStr">
+      <c r="AT172" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24175,7 +24495,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR173" t="inlineStr">
+      <c r="AT173" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24320,7 +24640,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR174" t="inlineStr">
+      <c r="AT174" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24465,7 +24785,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR175" t="inlineStr">
+      <c r="AT175" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24610,7 +24930,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR176" t="inlineStr">
+      <c r="AT176" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24742,7 +25062,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR177" t="inlineStr">
+      <c r="AT177" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24887,7 +25207,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR178" t="inlineStr">
+      <c r="AT178" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25019,7 +25339,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR179" t="inlineStr">
+      <c r="AT179" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25138,7 +25458,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR180" t="inlineStr">
+      <c r="AT180" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25257,7 +25577,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR181" t="inlineStr">
+      <c r="AT181" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25376,7 +25696,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR182" t="inlineStr">
+      <c r="AT182" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25495,7 +25815,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR183" t="inlineStr">
+      <c r="AT183" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25614,7 +25934,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR184" t="inlineStr">
+      <c r="AT184" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25733,7 +26053,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR185" t="inlineStr">
+      <c r="AT185" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25852,7 +26172,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR186" t="inlineStr">
+      <c r="AT186" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25971,7 +26291,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR187" t="inlineStr">
+      <c r="AT187" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26090,7 +26410,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR188" t="inlineStr">
+      <c r="AT188" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26206,7 +26526,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR189" t="inlineStr">
+      <c r="AT189" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26325,7 +26645,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR190" t="inlineStr">
+      <c r="AT190" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26444,7 +26764,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR191" t="inlineStr">
+      <c r="AT191" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26563,7 +26883,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR192" t="inlineStr">
+      <c r="AT192" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26682,7 +27002,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR193" t="inlineStr">
+      <c r="AT193" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26801,7 +27121,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR194" t="inlineStr">
+      <c r="AT194" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26917,7 +27237,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR195" t="inlineStr">
+      <c r="AT195" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27036,7 +27356,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR196" t="inlineStr">
+      <c r="AT196" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27155,7 +27475,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR197" t="inlineStr">
+      <c r="AT197" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27274,7 +27594,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR198" t="inlineStr">
+      <c r="AT198" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27393,7 +27713,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR199" t="inlineStr">
+      <c r="AT199" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27512,7 +27832,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR200" t="inlineStr">
+      <c r="AT200" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27631,7 +27951,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR201" t="inlineStr">
+      <c r="AT201" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27750,7 +28070,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR202" t="inlineStr">
+      <c r="AT202" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27869,7 +28189,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR203" t="inlineStr">
+      <c r="AT203" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27988,7 +28308,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR204" t="inlineStr">
+      <c r="AT204" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28107,7 +28427,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR205" t="inlineStr">
+      <c r="AT205" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28226,7 +28546,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR206" t="inlineStr">
+      <c r="AT206" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28348,7 +28668,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR207" t="inlineStr">
+      <c r="AT207" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28470,7 +28790,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR208" t="inlineStr">
+      <c r="AT208" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28592,7 +28912,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR209" t="inlineStr">
+      <c r="AT209" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28714,7 +29034,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR210" t="inlineStr">
+      <c r="AT210" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28836,7 +29156,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR211" t="inlineStr">
+      <c r="AT211" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28958,7 +29278,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR212" t="inlineStr">
+      <c r="AT212" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29080,7 +29400,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR213" t="inlineStr">
+      <c r="AT213" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29202,7 +29522,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR214" t="inlineStr">
+      <c r="AT214" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29319,7 +29639,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR215" t="inlineStr">
+      <c r="AT215" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29441,7 +29761,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR216" t="inlineStr">
+      <c r="AT216" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29560,7 +29880,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR217" t="inlineStr">
+      <c r="AT217" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29679,7 +29999,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR218" t="inlineStr">
+      <c r="AT218" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29798,7 +30118,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR219" t="inlineStr">
+      <c r="AT219" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29917,7 +30237,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR220" t="inlineStr">
+      <c r="AT220" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30036,7 +30356,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR221" t="inlineStr">
+      <c r="AT221" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30155,7 +30475,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR222" t="inlineStr">
+      <c r="AT222" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30274,7 +30594,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR223" t="inlineStr">
+      <c r="AT223" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30393,7 +30713,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR224" t="inlineStr">
+      <c r="AT224" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30512,7 +30832,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR225" t="inlineStr">
+      <c r="AT225" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30631,7 +30951,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR226" t="inlineStr">
+      <c r="AT226" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30750,7 +31070,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR227" t="inlineStr">
+      <c r="AT227" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30869,7 +31189,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR228" t="inlineStr">
+      <c r="AT228" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31024,7 +31344,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR229" t="inlineStr">
+      <c r="AT229" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31176,7 +31496,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR230" t="inlineStr">
+      <c r="AT230" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31331,7 +31651,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR231" t="inlineStr">
+      <c r="AT231" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31486,7 +31806,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR232" t="inlineStr">
+      <c r="AT232" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31641,7 +31961,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR233" t="inlineStr">
+      <c r="AT233" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31787,7 +32107,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR234" t="inlineStr">
+      <c r="AT234" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31942,7 +32262,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR235" t="inlineStr">
+      <c r="AT235" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32097,7 +32417,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR236" t="inlineStr">
+      <c r="AT236" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32252,7 +32572,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR237" t="inlineStr">
+      <c r="AT237" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32371,7 +32691,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR238" t="inlineStr">
+      <c r="AT238" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32490,7 +32810,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR239" t="inlineStr">
+      <c r="AT239" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32652,7 +32972,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR240" t="inlineStr">
+      <c r="AT240" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32814,7 +33134,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR241" t="inlineStr">
+      <c r="AT241" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32971,7 +33291,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR242" t="inlineStr">
+      <c r="AT242" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33128,7 +33448,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR243" t="inlineStr">
+      <c r="AT243" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33290,7 +33610,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR244" t="inlineStr">
+      <c r="AT244" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33399,7 +33719,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR245" t="inlineStr">
+      <c r="AT245" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33508,7 +33828,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR246" t="inlineStr">
+      <c r="AT246" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33617,7 +33937,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR247" t="inlineStr">
+      <c r="AT247" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33728,6 +34048,11 @@
       </c>
       <c r="AR248" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT248" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -33868,7 +34193,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR249" t="inlineStr">
+      <c r="AT249" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34010,7 +34335,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR250" t="inlineStr">
+      <c r="AT250" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34152,7 +34477,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR251" t="inlineStr">
+      <c r="AT251" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34294,7 +34619,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR252" t="inlineStr">
+      <c r="AT252" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34436,7 +34761,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR253" t="inlineStr">
+      <c r="AT253" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34552,6 +34877,11 @@
       </c>
       <c r="AR254" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT254" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -34692,7 +35022,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR255" t="inlineStr">
+      <c r="AT255" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34834,7 +35164,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR256" t="inlineStr">
+      <c r="AT256" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34993,6 +35323,11 @@
       </c>
       <c r="AR257" t="inlineStr">
         <is>
+          <t>BBM JULY 2022-DEC2022</t>
+        </is>
+      </c>
+      <c r="AT257" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -35150,6 +35485,11 @@
       </c>
       <c r="AR258" t="inlineStr">
         <is>
+          <t>BBM JULY 2022-DEC2022</t>
+        </is>
+      </c>
+      <c r="AT258" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -35304,6 +35644,11 @@
       </c>
       <c r="AR259" t="inlineStr">
         <is>
+          <t>BBM JULY 2022-DEC2022</t>
+        </is>
+      </c>
+      <c r="AT259" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -35461,6 +35806,11 @@
       </c>
       <c r="AR260" t="inlineStr">
         <is>
+          <t>BBM JULY 2022-DEC2022</t>
+        </is>
+      </c>
+      <c r="AT260" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -35618,6 +35968,11 @@
       </c>
       <c r="AR261" t="inlineStr">
         <is>
+          <t>BBM JULY 2022-DEC2022</t>
+        </is>
+      </c>
+      <c r="AT261" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -35775,6 +36130,11 @@
       </c>
       <c r="AR262" t="inlineStr">
         <is>
+          <t>BBM JULY 2022-DEC2022</t>
+        </is>
+      </c>
+      <c r="AT262" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -35932,6 +36292,11 @@
       </c>
       <c r="AR263" t="inlineStr">
         <is>
+          <t>BBM JULY 2022-DEC2022</t>
+        </is>
+      </c>
+      <c r="AT263" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -36089,6 +36454,11 @@
       </c>
       <c r="AR264" t="inlineStr">
         <is>
+          <t>BBM JULY 2022-DEC2022</t>
+        </is>
+      </c>
+      <c r="AT264" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -36246,6 +36616,11 @@
       </c>
       <c r="AR265" t="inlineStr">
         <is>
+          <t>BBM JULY 2022-DEC2022</t>
+        </is>
+      </c>
+      <c r="AT265" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -36403,6 +36778,11 @@
       </c>
       <c r="AR266" t="inlineStr">
         <is>
+          <t>BBM JULY 2022-DEC2022</t>
+        </is>
+      </c>
+      <c r="AT266" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -36510,7 +36890,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR267" t="inlineStr">
+      <c r="AT267" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36662,7 +37042,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR268" t="inlineStr">
+      <c r="AT268" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36771,7 +37151,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR269" t="inlineStr">
+      <c r="AT269" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36880,7 +37260,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR270" t="inlineStr">
+      <c r="AT270" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36989,7 +37369,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR271" t="inlineStr">
+      <c r="AT271" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37095,7 +37475,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR272" t="inlineStr">
+      <c r="AT272" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37241,7 +37621,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR273" t="inlineStr">
+      <c r="AT273" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37387,7 +37767,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR274" t="inlineStr">
+      <c r="AT274" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37533,7 +37913,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR275" t="inlineStr">
+      <c r="AT275" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37642,7 +38022,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR276" t="inlineStr">
+      <c r="AT276" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37751,7 +38131,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR277" t="inlineStr">
+      <c r="AT277" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37860,7 +38240,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR278" t="inlineStr">
+      <c r="AT278" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37969,7 +38349,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR279" t="inlineStr">
+      <c r="AT279" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38078,7 +38458,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR280" t="inlineStr">
+      <c r="AT280" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38187,7 +38567,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR281" t="inlineStr">
+      <c r="AT281" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38296,7 +38676,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR282" t="inlineStr">
+      <c r="AT282" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38405,7 +38785,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR283" t="inlineStr">
+      <c r="AT283" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38545,7 +38925,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR284" t="inlineStr">
+      <c r="AT284" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38685,7 +39065,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR285" t="inlineStr">
+      <c r="AT285" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38827,6 +39207,11 @@
       </c>
       <c r="AR286" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT286" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -38967,6 +39352,11 @@
       </c>
       <c r="AR287" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT287" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -39105,7 +39495,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR288" t="inlineStr">
+      <c r="AT288" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39214,7 +39604,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR289" t="inlineStr">
+      <c r="AT289" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39323,7 +39713,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR290" t="inlineStr">
+      <c r="AT290" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39427,7 +39817,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR291" t="inlineStr">
+      <c r="AT291" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -39536,7 +39926,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR292" t="inlineStr">
+      <c r="AT292" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39647,6 +40037,11 @@
       </c>
       <c r="AR293" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT293" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -39754,7 +40149,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR294" t="inlineStr">
+      <c r="AT294" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39863,7 +40258,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR295" t="inlineStr">
+      <c r="AT295" t="inlineStr">
         <is>
           <t>TERMINATED</t>
         </is>
@@ -39972,7 +40367,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR296" t="inlineStr">
+      <c r="AT296" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40081,7 +40476,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR297" t="inlineStr">
+      <c r="AT297" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40209,7 +40604,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR298" t="inlineStr">
+      <c r="AT298" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40337,7 +40732,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR299" t="inlineStr">
+      <c r="AT299" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40465,7 +40860,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR300" t="inlineStr">
+      <c r="AT300" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40606,7 +41001,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR301" t="inlineStr">
+      <c r="AT301" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40717,6 +41112,11 @@
       </c>
       <c r="AR302" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT302" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -40824,7 +41224,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR303" t="inlineStr">
+      <c r="AT303" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40957,6 +41357,11 @@
       </c>
       <c r="AR304" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT304" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -41088,6 +41493,11 @@
       </c>
       <c r="AR305" t="inlineStr">
         <is>
+          <t>BBM JULY 2022-DEC2022</t>
+        </is>
+      </c>
+      <c r="AT305" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -41234,6 +41644,11 @@
       </c>
       <c r="AR306" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT306" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -41348,6 +41763,11 @@
       </c>
       <c r="AR307" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT307" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -41462,6 +41882,11 @@
       </c>
       <c r="AR308" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT308" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -41613,6 +42038,11 @@
       </c>
       <c r="AR309" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT309" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -41764,6 +42194,11 @@
       </c>
       <c r="AR310" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT310" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -41915,6 +42350,11 @@
       </c>
       <c r="AR311" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT311" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -42066,6 +42506,11 @@
       </c>
       <c r="AR312" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT312" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -42178,7 +42623,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR313" t="inlineStr">
+      <c r="AT313" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -42331,6 +42776,11 @@
       </c>
       <c r="AR314" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT314" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -42443,7 +42893,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR315" t="inlineStr">
+      <c r="AT315" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -42596,6 +43046,11 @@
       </c>
       <c r="AR316" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT316" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -42747,6 +43202,11 @@
       </c>
       <c r="AR317" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT317" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -42859,7 +43319,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR318" t="inlineStr">
+      <c r="AT318" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -43012,6 +43472,11 @@
       </c>
       <c r="AR319" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT319" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -43132,7 +43597,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR320" t="inlineStr">
+      <c r="AT320" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -43254,7 +43719,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR321" t="inlineStr">
+      <c r="AT321" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -43373,7 +43838,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR322" t="inlineStr">
+      <c r="AT322" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -43526,6 +43991,11 @@
       </c>
       <c r="AR323" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT323" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -43677,6 +44147,11 @@
       </c>
       <c r="AR324" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT324" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -43825,7 +44300,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR325" t="inlineStr">
+      <c r="AT325" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -43975,7 +44450,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR326" t="inlineStr">
+      <c r="AT326" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -44122,7 +44597,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR327" t="inlineStr">
+      <c r="AT327" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -44269,7 +44744,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR328" t="inlineStr">
+      <c r="AT328" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -44416,7 +44891,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR329" t="inlineStr">
+      <c r="AT329" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -44561,7 +45036,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR330" t="inlineStr">
+      <c r="AT330" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -44689,6 +45164,11 @@
       </c>
       <c r="AR331" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT331" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -44839,7 +45319,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR332" t="inlineStr">
+      <c r="AT332" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -44953,6 +45433,11 @@
       </c>
       <c r="AR333" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT333" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -45099,7 +45584,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR334" t="inlineStr">
+      <c r="AT334" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -45247,7 +45732,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR335" t="inlineStr">
+      <c r="AT335" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -45395,7 +45880,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR336" t="inlineStr">
+      <c r="AT336" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -45543,7 +46028,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR337" t="inlineStr">
+      <c r="AT337" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -45691,7 +46176,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR338" t="inlineStr">
+      <c r="AT338" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -45836,7 +46321,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR339" t="inlineStr">
+      <c r="AT339" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -45986,6 +46471,11 @@
       </c>
       <c r="AR340" t="inlineStr">
         <is>
+          <t>BBM 2024 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT340" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -46122,7 +46612,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR341" t="inlineStr">
+      <c r="AT341" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -46278,7 +46768,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR342" t="inlineStr">
+      <c r="AT342" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -46434,7 +46924,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR343" t="inlineStr">
+      <c r="AT343" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -46592,6 +47082,11 @@
       </c>
       <c r="AR344" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT344" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -46705,7 +47200,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR345" t="inlineStr">
+      <c r="AT345" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -46820,7 +47315,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR346" t="inlineStr">
+      <c r="AT346" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -46828,7 +47323,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AS2:AS346" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AU2:AU346" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
